--- a/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_2_output.xlsx
+++ b/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_2_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>alpha</t>
   </si>
@@ -36,27 +36,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -90,33 +72,12 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
-    <t>iestimate</t>
-  </si>
-  <si>
-    <t>igraph</t>
-  </si>
-  <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>sysGene1</t>
-  </si>
-  <si>
     <t>QT1</t>
   </si>
   <si>
-    <t>sysGene2</t>
-  </si>
-  <si>
     <t>SMRT1</t>
   </si>
   <si>
-    <t>sysGene3</t>
-  </si>
-  <si>
     <t>WRD2</t>
   </si>
   <si>
@@ -126,10 +87,37 @@
     <t>run with fixed b (all 0) and fixed P the result should be optimized weights in absolute value less than tolX</t>
   </si>
   <si>
-    <t>prorate</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
@@ -556,183 +544,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
         <v>1.6</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -744,55 +701,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>3.2166737893945845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>5.162804180051686</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>5.1733302608266145</v>
       </c>
     </row>
@@ -803,55 +748,43 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -864,29 +797,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>-1.6924268437584085</v>
@@ -900,7 +831,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -914,7 +845,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -933,153 +864,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1091,20 +991,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="7">
+        <v>5</v>
       </c>
       <c r="C1" s="7">
         <v>5</v>
@@ -1116,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7">
         <v>10</v>
@@ -1128,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7">
         <v>20</v>
@@ -1142,16 +1040,13 @@
       <c r="N1" s="7">
         <v>20</v>
       </c>
-      <c r="O1" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1189,16 +1084,13 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1236,16 +1128,13 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1283,40 +1172,37 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1329,9 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1357,21 +1241,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1385,7 +1269,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1399,7 +1283,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1423,9 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1450,16 +1332,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1482,7 +1364,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1496,7 +1378,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1510,7 +1392,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1535,7 +1417,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1545,22 +1427,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1581,7 +1463,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -1589,7 +1471,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1597,7 +1479,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -1605,7 +1487,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1613,15 +1495,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1629,7 +1511,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1637,7 +1519,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -1645,7 +1527,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -1653,7 +1535,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -1667,15 +1549,15 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
@@ -1683,7 +1565,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -1691,7 +1573,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1770,19 +1652,22 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1790,7 +1675,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1798,7 +1683,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1828,12 +1713,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1843,295 +1728,281 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
       <c r="F1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="R1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.5254034949482325E-5</v>
+      </c>
+      <c r="D2">
+        <v>6.2061576847294297E-5</v>
+      </c>
+      <c r="E2">
+        <v>6.0249682631408064E-5</v>
+      </c>
+      <c r="F2">
+        <v>6.3959448453720924E-5</v>
+      </c>
+      <c r="G2">
+        <v>6.355950276648592E-5</v>
+      </c>
+      <c r="H2">
+        <v>6.4378306781076589E-5</v>
+      </c>
+      <c r="I2">
+        <v>6.4290031277614013E-5</v>
+      </c>
+      <c r="J2">
+        <v>6.4448562155372535E-5</v>
+      </c>
+      <c r="K2">
+        <v>6.447076627602577E-5</v>
+      </c>
+      <c r="L2">
+        <v>6.4488650198590847E-5</v>
+      </c>
+      <c r="M2">
+        <v>6.4494519375735138E-5</v>
+      </c>
+      <c r="N2">
+        <v>6.4496151358173215E-5</v>
+      </c>
+      <c r="O2">
+        <v>6.4496675299063888E-5</v>
+      </c>
+      <c r="P2">
+        <v>6.4496866630125993E-5</v>
+      </c>
+      <c r="Q2">
+        <v>6.4496891995280414E-5</v>
+      </c>
+      <c r="R2">
+        <v>6.4496919784273743E-5</v>
+      </c>
+      <c r="S2">
+        <v>6.4496926612589434E-5</v>
+      </c>
+      <c r="T2">
+        <v>6.4496933016244817E-5</v>
+      </c>
+      <c r="U2">
+        <v>6.4496935287650103E-5</v>
+      </c>
+      <c r="V2">
+        <v>6.4496936314384357E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="S1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-2.3351032633351629E-4</v>
+      </c>
+      <c r="D3">
+        <v>-4.1770864991109785E-4</v>
+      </c>
+      <c r="E3">
+        <v>-1.4555762985826883E-4</v>
+      </c>
+      <c r="F3">
+        <v>-6.5869804228937566E-4</v>
+      </c>
+      <c r="G3">
+        <v>9.9933994784695557E-5</v>
+      </c>
+      <c r="H3">
+        <v>-1.338791153232515E-3</v>
+      </c>
+      <c r="I3">
+        <v>7.9194847615438047E-4</v>
+      </c>
+      <c r="J3">
+        <v>-1.1908324740693831E-3</v>
+      </c>
+      <c r="K3">
+        <v>2.516420079764492E-4</v>
+      </c>
+      <c r="L3">
+        <v>1.8851521042051456E-4</v>
+      </c>
+      <c r="M3">
+        <v>-3.5790865756589642E-4</v>
+      </c>
+      <c r="N3">
+        <v>-3.2703628386556767E-4</v>
+      </c>
+      <c r="O3">
+        <v>-1.7236507569560718E-4</v>
+      </c>
+      <c r="P3">
+        <v>-8.8437352721015556E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1.5789791726672497E-4</v>
+      </c>
+      <c r="R3">
+        <v>-1.596230768382748E-3</v>
+      </c>
+      <c r="S3">
+        <v>9.1145979895268514E-4</v>
+      </c>
+      <c r="T3">
+        <v>-9.6980041536836312E-4</v>
+      </c>
+      <c r="U3">
+        <v>3.9778326038197864E-4</v>
+      </c>
+      <c r="V3">
+        <v>-1.1471045307193494E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="T1">
-        <v>17</v>
-      </c>
-      <c r="U1">
-        <v>18</v>
-      </c>
-      <c r="V1">
-        <v>19</v>
-      </c>
-      <c r="W1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4.5254034949482325E-5</v>
-      </c>
-      <c r="E2">
-        <v>6.2061576847294297E-5</v>
-      </c>
-      <c r="F2">
-        <v>6.0249682631408064E-5</v>
-      </c>
-      <c r="G2">
-        <v>6.3959448453720924E-5</v>
-      </c>
-      <c r="H2">
-        <v>6.355950276648592E-5</v>
-      </c>
-      <c r="I2">
-        <v>6.4378306781076589E-5</v>
-      </c>
-      <c r="J2">
-        <v>6.4290031277614013E-5</v>
-      </c>
-      <c r="K2">
-        <v>6.4448562155372535E-5</v>
-      </c>
-      <c r="L2">
-        <v>6.447076627602577E-5</v>
-      </c>
-      <c r="M2">
-        <v>6.4488650198590847E-5</v>
-      </c>
-      <c r="N2">
-        <v>6.4494519375735138E-5</v>
-      </c>
-      <c r="O2">
-        <v>6.4496151358173215E-5</v>
-      </c>
-      <c r="P2">
-        <v>6.4496675299063888E-5</v>
-      </c>
-      <c r="Q2">
-        <v>6.4496866630125993E-5</v>
-      </c>
-      <c r="R2">
-        <v>6.4496891995280414E-5</v>
-      </c>
-      <c r="S2">
-        <v>6.4496919784273743E-5</v>
-      </c>
-      <c r="T2">
-        <v>6.4496926612589434E-5</v>
-      </c>
-      <c r="U2">
-        <v>6.4496933016244817E-5</v>
-      </c>
-      <c r="V2">
-        <v>6.4496935287650103E-5</v>
-      </c>
-      <c r="W2">
-        <v>6.4496936314384357E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-2.3351032633351629E-4</v>
-      </c>
-      <c r="E3">
-        <v>-4.1770864991109785E-4</v>
-      </c>
-      <c r="F3">
-        <v>-1.4555762985826883E-4</v>
-      </c>
-      <c r="G3">
-        <v>-6.5869804228937566E-4</v>
-      </c>
-      <c r="H3">
-        <v>9.9933994784695557E-5</v>
-      </c>
-      <c r="I3">
-        <v>-1.338791153232515E-3</v>
-      </c>
-      <c r="J3">
-        <v>7.9194847615438047E-4</v>
-      </c>
-      <c r="K3">
-        <v>-1.1908324740693831E-3</v>
-      </c>
-      <c r="L3">
-        <v>2.516420079764492E-4</v>
-      </c>
-      <c r="M3">
-        <v>1.8851521042051456E-4</v>
-      </c>
-      <c r="N3">
-        <v>-3.5790865756589642E-4</v>
-      </c>
-      <c r="O3">
-        <v>-3.2703628386556767E-4</v>
-      </c>
-      <c r="P3">
-        <v>-1.7236507569560718E-4</v>
-      </c>
-      <c r="Q3">
-        <v>-8.8437352721015556E-4</v>
-      </c>
-      <c r="R3">
-        <v>1.5789791726672497E-4</v>
-      </c>
-      <c r="S3">
-        <v>-1.596230768382748E-3</v>
-      </c>
-      <c r="T3">
-        <v>9.1145979895268514E-4</v>
-      </c>
-      <c r="U3">
-        <v>-9.6980041536836312E-4</v>
-      </c>
-      <c r="V3">
-        <v>3.9778326038197864E-4</v>
-      </c>
-      <c r="W3">
-        <v>-1.1471045307193494E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-2.4971819391206618E-7</v>
       </c>
       <c r="D4">
-        <v>-2.4971819391206618E-7</v>
+        <v>-5.8138466522291209E-7</v>
       </c>
       <c r="E4">
-        <v>-5.8138466522291209E-7</v>
+        <v>-2.0564828249531437E-8</v>
       </c>
       <c r="F4">
-        <v>-2.0564828249531437E-8</v>
+        <v>-1.766265934007156E-6</v>
       </c>
       <c r="G4">
-        <v>-1.766265934007156E-6</v>
+        <v>1.1855693557993874E-6</v>
       </c>
       <c r="H4">
-        <v>1.1855693557993874E-6</v>
+        <v>-8.003108076865858E-6</v>
       </c>
       <c r="I4">
-        <v>-8.003108076865858E-6</v>
+        <v>7.5342631200570054E-6</v>
       </c>
       <c r="J4">
-        <v>7.5342631200570054E-6</v>
+        <v>-1.3060477508472279E-5</v>
       </c>
       <c r="K4">
-        <v>-1.3060477508472279E-5</v>
+        <v>3.55476543179023E-6</v>
       </c>
       <c r="L4">
-        <v>3.55476543179023E-6</v>
+        <v>1.0443235939128215E-5</v>
       </c>
       <c r="M4">
-        <v>1.0443235939128215E-5</v>
+        <v>-5.8876435522574317E-6</v>
       </c>
       <c r="N4">
-        <v>-5.8876435522574317E-6</v>
+        <v>-7.6445305071345716E-6</v>
       </c>
       <c r="O4">
-        <v>-7.6445305071345716E-6</v>
+        <v>8.277021768199333E-6</v>
       </c>
       <c r="P4">
-        <v>8.277021768199333E-6</v>
+        <v>-8.9845955433304336E-5</v>
       </c>
       <c r="Q4">
-        <v>-8.9845955433304336E-5</v>
+        <v>6.5664678943866406E-5</v>
       </c>
       <c r="R4">
-        <v>6.5664678943866406E-5</v>
+        <v>-3.7038507006245832E-4</v>
       </c>
       <c r="S4">
-        <v>-3.7038507006245832E-4</v>
+        <v>3.2806642891303195E-4</v>
       </c>
       <c r="T4">
-        <v>3.2806642891303195E-4</v>
+        <v>-4.2159262117961419E-4</v>
       </c>
       <c r="U4">
-        <v>-4.2159262117961419E-4</v>
+        <v>3.0671743185084477E-4</v>
       </c>
       <c r="V4">
-        <v>3.0671743185084477E-4</v>
-      </c>
-      <c r="W4">
         <v>9.967643688613137E-5</v>
       </c>
     </row>

--- a/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_2_output.xlsx
+++ b/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_2_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>alpha</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>targets/regulators</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -558,10 +558,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>1.6</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -711,15 +711,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>3.2166737893945845</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5.162804180051686</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5.1733302608266145</v>
@@ -758,15 +758,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -797,27 +797,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>-1.6924268437584085</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -879,15 +879,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0.8</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -999,7 +999,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1241,21 +1241,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1332,16 +1332,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1425,27 +1425,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1441,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1461,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1457,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1465,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1473,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1493,87 +1481,87 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1659,15 +1647,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1675,7 +1663,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1683,7 +1671,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1713,12 +1701,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1804,7 +1792,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1872,7 +1860,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1940,7 +1928,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
